--- a/trend_results/Rivers/MangatainokaatdsPahiatuaSTP_ba1729429b.xlsx
+++ b/trend_results/Rivers/MangatainokaatdsPahiatuaSTP_ba1729429b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.995763055872505</v>
+        <v>0.0042369441274949</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.988048028920531</v>
+        <v>0.011951971079469</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.646644519765603</v>
+        <v>0.353355480234397</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.999787851787579</v>
+        <v>0.0002121482124209</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.889664319040077</v>
+        <v>0.0067969684891115</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.581967213114754</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.365</v>
+        <v>42.75</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0272087434777123</v>
+        <v>2.00109757980894</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0486294716667919</v>
+        <v>0.444223764952923</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0662251248548187</v>
+        <v>3.22583439933233</v>
       </c>
       <c r="N30" t="n">
-        <v>7.45445026786638</v>
+        <v>4.68093001124899</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,7 +3175,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.5</v>
+        <v>0.402679801586845</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.104651162790698</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.732558139534884</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>94.62</v>
+        <v>2.2</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.570844351352893</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-12.7830377068971</v>
+        <v>-0.0739374541918851</v>
       </c>
       <c r="M31" t="n">
-        <v>3.11512692578445</v>
+        <v>0.08529023152716531</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.603301998893356</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3262,7 +3266,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3272,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3287,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.986256831944245</v>
+        <v>0.397317184923881</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.817073170731707</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4.349</v>
+        <v>10.45</v>
       </c>
       <c r="K32" t="n">
-        <v>0.67252872411107</v>
+        <v>-0.0044360153330882</v>
       </c>
       <c r="L32" t="n">
-        <v>0.440774574706081</v>
+        <v>-0.0298732279171211</v>
       </c>
       <c r="M32" t="n">
-        <v>0.749080376689933</v>
+        <v>0.0217809709946206</v>
       </c>
       <c r="N32" t="n">
-        <v>15.4639853785024</v>
+        <v>-0.0424499074936671</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3349,7 +3357,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3359,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.301083763874098</v>
+        <v>0.999998078039951</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.144578313253012</v>
       </c>
       <c r="H33" t="n">
+        <v>0.216867469879518</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.41</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.008892302672755001</v>
+        <v>-0.0004953661844484</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0315170374125703</v>
+        <v>-0.0007180537352555</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0180942057181615</v>
+        <v>-0.0003015796726797</v>
       </c>
       <c r="N33" t="n">
-        <v>-2.16885431042806</v>
+        <v>-5.50406871609403</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,7 +3448,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3446,11 +3462,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3461,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.07620314197837499</v>
+        <v>0.0040833694063674</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0060240963855421</v>
       </c>
       <c r="H34" t="n">
+        <v>0.686746987951807</v>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
       <c r="J34" t="n">
-        <v>97.55</v>
+        <v>152</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.67699724517906</v>
+        <v>6.73973214285714</v>
       </c>
       <c r="L34" t="n">
-        <v>-4.24570004252487</v>
+        <v>2.30493587337267</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0497568021056319</v>
+        <v>11.6405514446938</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.71911557681093</v>
+        <v>4.43403430451128</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3494,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3523,7 +3539,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3533,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.874273906745989</v>
+        <v>0.659302510264309</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.7579617834394899</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.254777070063694</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>4.349</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>0.211725308752297</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.064845597998408</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.633675969457514</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>4.86836764203949</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3581,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3610,7 +3630,1166 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.334229838148795</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0001344808541973</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.668678670447821</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.907894736842105</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.90855</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0056959064327485</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0203438719834266</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0091862714525003</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.626922726624681</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.080852275843626</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.588957055214724</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.0098760703019378</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0219543349591454</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0017273774326105</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.133641005438943</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Very unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.810395055605136</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.939759036144578</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0071093565406893</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0224032510308597</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0038711897158157</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.769410881026991</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.971580612551629</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.692771084337349</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.0955</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.009964863648569499</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0194091846047132</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.001357031527893</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.90961785929434</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.99922281368735</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0060240963855421</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.355421686746988</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.0006458885941644</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0009685117666556</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.0003022137323204</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-3.22944297082228</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.44880054854876</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.903030303030303</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0045010269283432</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.0236383089555247</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0310682471218883</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.310415650230567</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0272087434777123</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0486294716667919</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0662251248548187</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.45445026786638</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>94.62</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.570844351352893</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-12.7830377068971</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3.11512692578445</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.603301998893356</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.986256831944245</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.349</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.67252872411107</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.440774574706081</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.749080376689933</v>
+      </c>
+      <c r="N45" t="n">
+        <v>15.4639853785024</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.301083763874098</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.008892302672755001</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0315170374125703</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0180942057181615</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-2.16885431042806</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.07620314197837499</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>97.55</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.67699724517906</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-4.24570004252487</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0497568021056319</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.71911557681093</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mangatainoka at d/s Pahiatua STP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.874273906745989</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.349</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.211725308752297</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.064845597998408</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.633675969457514</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4.86836764203949</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1841340</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5519714</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangatainokaatdsPahiatuaSTP_ba1729429b.xlsx
+++ b/trend_results/Rivers/MangatainokaatdsPahiatuaSTP_ba1729429b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W48"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.163738387700563</v>
+        <v>0.09533776357255271</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.606060606060606</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -588,16 +588,16 @@
         <v>60</v>
       </c>
       <c r="K2" t="n">
-        <v>3.69894754384166</v>
+        <v>6.4277950310559</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.19874481708351</v>
+        <v>-1.52261258929423</v>
       </c>
       <c r="M2" t="n">
-        <v>11.8313785538182</v>
+        <v>15.0368042760264</v>
       </c>
       <c r="N2" t="n">
-        <v>6.16491257306943</v>
+        <v>10.7129917184265</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,10 +664,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.335106056307954</v>
+        <v>0.08444233677292599</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0454545454545455</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -676,19 +676,19 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.465</v>
+        <v>0.43</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0500342465753425</v>
+        <v>-0.356097365339578</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.741088209875849</v>
+        <v>-0.713914108176122</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0848032218442879</v>
+        <v>-0.0143467368960344</v>
       </c>
       <c r="N3" t="n">
-        <v>-10.7600530269554</v>
+        <v>-82.8133407766462</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0042369441274949</v>
+        <v>0.0037897960157909</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.931034482758621</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.485</v>
+        <v>10.49</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.151979877216917</v>
+        <v>-0.145828981358524</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.264923780156533</v>
+        <v>-0.230789835164835</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.0561726916358834</v>
+        <v>-0.0464180701508727</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.44949811365681</v>
+        <v>-1.39017141428526</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.0158343929654835</v>
+        <v>0.0578302213288803</v>
       </c>
       <c r="G5" t="n">
-        <v>0.224137931034483</v>
+        <v>0.203389830508475</v>
       </c>
       <c r="H5" t="n">
-        <v>0.241379310344828</v>
+        <v>0.220338983050847</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -861,16 +861,16 @@
         <v>0.007</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0007454081632653</v>
+        <v>0.0003865079365079</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0014489940321317</v>
+        <v>0.0011665251612055</v>
       </c>
       <c r="N5" t="n">
-        <v>10.6486880466472</v>
+        <v>5.52154195011338</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,17 +933,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.534757469660018</v>
+        <v>0.404391146790366</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0172413793103448</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H6" t="n">
-        <v>0.758620689655172</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -952,16 +952,16 @@
         <v>230</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>4.01373626373626</v>
       </c>
       <c r="L6" t="n">
-        <v>-46.3356511556555</v>
+        <v>-29.2368459605632</v>
       </c>
       <c r="M6" t="n">
-        <v>31.8754176793311</v>
+        <v>40.2056999373276</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.74510272336359</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.0003686711095078</v>
+        <v>0.0549410135984706</v>
       </c>
       <c r="G7" t="n">
-        <v>0.745098039215686</v>
+        <v>0.690909090909091</v>
       </c>
       <c r="H7" t="n">
-        <v>0.274509803921569</v>
+        <v>0.327272727272727</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0269856522694885</v>
+        <v>0.991971226962404</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0862068965517241</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H8" t="n">
-        <v>0.172413793103448</v>
+        <v>0.169491525423729</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1134,16 +1134,16 @@
         <v>0.004</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0002393512450851</v>
+        <v>-0.0002731862378459</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>-0.0005893266021367</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0006287123421263</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>5.98378112712975</v>
+        <v>-6.82965594614809</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0040265747628535</v>
+        <v>0.374304629786965</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.948275862068966</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.853</v>
+        <v>0.84</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09534357005758159</v>
+        <v>0.0113722527472528</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0396647374715802</v>
+        <v>-0.0486061477164542</v>
       </c>
       <c r="M9" t="n">
-        <v>0.152548978406947</v>
+        <v>0.06756109553577901</v>
       </c>
       <c r="N9" t="n">
-        <v>11.1774408039369</v>
+        <v>1.35383961276819</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.011951971079469</v>
+        <v>0.032471416189822</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.807017543859649</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1316,16 +1316,16 @@
         <v>7.37</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0594550061146843</v>
+        <v>-0.0465880102040815</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.100870848174836</v>
+        <v>-0.0869642857142858</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0175604879224739</v>
+        <v>-0.0039782966549057</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.806716500877671</v>
+        <v>-0.632130396256194</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0036461297144328</v>
+        <v>0.379283745241188</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.867</v>
+        <v>0.859</v>
       </c>
       <c r="K11" t="n">
-        <v>0.101561862244898</v>
+        <v>0.0125345171588188</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0399421707757493</v>
+        <v>-0.0504015206822244</v>
       </c>
       <c r="M11" t="n">
-        <v>0.155061389922413</v>
+        <v>0.0717616410231751</v>
       </c>
       <c r="N11" t="n">
-        <v>11.7141709625026</v>
+        <v>1.45919873793001</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1475,35 +1475,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.363644616349453</v>
+        <v>0.277998627362289</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.275862068965517</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.75</v>
+        <v>1.09</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.0171077283372366</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>-0.0345856004078305</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.07439372107548591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.56951636121436</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0090928979724724</v>
+        <v>0.258403920708057</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.862068965517241</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.06</v>
+        <v>0.018</v>
       </c>
       <c r="K13" t="n">
-        <v>0.08152901785714289</v>
+        <v>0.0006805900621118</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0260774776072525</v>
+        <v>-0.0007673270067799</v>
       </c>
       <c r="M13" t="n">
-        <v>0.129544848336124</v>
+        <v>0.0022112122507575</v>
       </c>
       <c r="N13" t="n">
-        <v>7.69141677897574</v>
+        <v>3.78105590062112</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.141055954501046</v>
+        <v>0.623204850635936</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5344827586206899</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.018</v>
+        <v>1.29</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0008780048076923</v>
+        <v>-0.0372704081632652</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0004897505021039</v>
+        <v>-0.184245405313779</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0022773224335017</v>
+        <v>0.187514553398683</v>
       </c>
       <c r="N14" t="n">
-        <v>4.87780448717949</v>
+        <v>-2.8891789273849</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.658802212853172</v>
+        <v>0.0010814324269579</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.982758620689655</v>
+        <v>0.658227848101266</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.33</v>
+        <v>50</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0502925989672978</v>
+        <v>4.99365234375</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.202428263204133</v>
+        <v>2.41742256357131</v>
       </c>
       <c r="M15" t="n">
-        <v>0.154172454679958</v>
+        <v>7.76181138040686</v>
       </c>
       <c r="N15" t="n">
-        <v>-3.78139841859382</v>
+        <v>9.9873046875</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0081849100119002</v>
+        <v>5.41602469494862e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.140350877192982</v>
       </c>
       <c r="H16" t="n">
-        <v>0.614457831325301</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>50</v>
+        <v>2.48</v>
       </c>
       <c r="K16" t="n">
-        <v>3.81794425087108</v>
+        <v>-0.384473684210526</v>
       </c>
       <c r="L16" t="n">
-        <v>1.30132088318641</v>
+        <v>-0.550308546209501</v>
       </c>
       <c r="M16" t="n">
-        <v>6.00082096209976</v>
+        <v>-0.248181206339712</v>
       </c>
       <c r="N16" t="n">
-        <v>7.63588850174216</v>
+        <v>-15.5029711375212</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0005178261894569</v>
+        <v>0.268305388504782</v>
       </c>
       <c r="G17" t="n">
-        <v>0.145454545454545</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8545454545454541</v>
+        <v>0.836206896551724</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.56</v>
+        <v>10.45</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.330244122965642</v>
+        <v>-0.0260892857142859</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.531633050778747</v>
+        <v>-0.0553540168602063</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.114316173953518</v>
+        <v>0.0164926689269532</v>
       </c>
       <c r="N17" t="n">
-        <v>-12.9001610533454</v>
+        <v>-0.249658236500343</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.818944706937409</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.170940170940171</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.153846153846154</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.353355480234397</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.853448275862069</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>10.45</v>
+        <v>0.008</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0165271493212666</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0530622332807921</v>
+        <v>-0.000289638855982</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0215250301810673</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.158154538959489</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.669727323209057</v>
+        <v>0.0271216131399011</v>
       </c>
       <c r="G19" t="n">
-        <v>0.179487179487179</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H19" t="n">
-        <v>0.162393162393162</v>
+        <v>0.709401709401709</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.008</v>
+        <v>162</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>10.4274450984831</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0002170856354627</v>
+        <v>1.43382593268956</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>23.1175930495524</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>6.4366945052365</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.07667863071184081</v>
+        <v>0.0019838025511411</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008547008547008499</v>
+        <v>0.798165137614679</v>
       </c>
       <c r="H20" t="n">
-        <v>0.709401709401709</v>
+        <v>0.211009174311927</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>162</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>7.73015873015873</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.7606374730077931</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>17.3928571428571</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>4.77170291985107</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0476238677664825</v>
+        <v>0.998816215904293</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7962962962962959</v>
+        <v>0.0683760683760684</v>
       </c>
       <c r="H21" t="n">
-        <v>0.212962962962963</v>
+        <v>0.145299145299145</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.0002403356400425</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0004076450892857</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-6.00839100106315</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,14 +2374,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.946819329102332</v>
+        <v>0.7474254717126519</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0598290598290598</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.145299145299145</v>
+        <v>0.897435897435897</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005</v>
+        <v>0.8688</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0001187227280123</v>
+        <v>-0.0122153058048067</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.000310911011079</v>
+        <v>-0.0309706998559547</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0099855268214184</v>
       </c>
       <c r="N22" t="n">
-        <v>-2.37445456024613</v>
+        <v>-1.40599744530463</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,14 +2465,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0713102430440256</v>
+        <v>0.034898494038064</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9145299145299149</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.88</v>
+        <v>7.38</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0150858136871116</v>
+        <v>-0.0154985855728431</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0022638833664755</v>
+        <v>-0.0298841995046676</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0301030219780219</v>
+        <v>-0.0013273726062917</v>
       </c>
       <c r="N23" t="n">
-        <v>1.71429700989905</v>
+        <v>-0.21000793459137</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0002121482124209</v>
+        <v>0.7300939717903</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.666666666666667</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.395</v>
+        <v>0.905</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0334478021978027</v>
+        <v>-0.0117935988022769</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0493397809582598</v>
+        <v>-0.0286530247983903</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.0181490683229813</v>
+        <v>0.0126347785124276</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.452302937089962</v>
+        <v>-1.30316008864938</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0578909463036338</v>
+        <v>0.851253092162137</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9401709401709401</v>
+        <v>0.735042735042735</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.898</v>
+        <v>1.09</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0166138332514131</v>
+        <v>-0.008692881719323701</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0022689557592325</v>
+        <v>-0.0272588712428829</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0324935255101843</v>
+        <v>0.009538081494099401</v>
       </c>
       <c r="N25" t="n">
-        <v>1.85009278968966</v>
+        <v>-0.797512084341626</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2745,32 +2745,32 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.914760417940172</v>
+        <v>0.632079306347757</v>
       </c>
       <c r="G26" t="n">
-        <v>0.324786324786325</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.239316239316239</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0.018</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-0.000509703602341</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.0003972849150365</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,14 +2825,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>10</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.161479362517035</v>
+        <v>0.418805231716811</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.777777777777778</v>
+        <v>0.905982905982906</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0129793141731367</v>
+        <v>0.0064315501785367</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0045219343499715</v>
+        <v>-0.0468374250857945</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0260846365858348</v>
+        <v>0.07466244097788979</v>
       </c>
       <c r="N27" t="n">
-        <v>1.22446360123931</v>
+        <v>0.483575201393741</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.524457518740703</v>
+        <v>0.0020009416139237</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.358974358974359</v>
+        <v>0.5859375</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.019</v>
+        <v>44.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>2.09158358662614</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0004266633895578</v>
+        <v>1.02166563761256</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0004533783585085</v>
+        <v>3.29780056279557</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>4.70018783511492</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.593118135888993</v>
+        <v>0.023611724338818</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="H29" t="n">
-        <v>0.923076923076923</v>
+        <v>0.790123456790123</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>1.37</v>
+        <v>2.2</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0089657869785082</v>
+        <v>-0.0741769336432798</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.07032376729396669</v>
+        <v>-0.144963448887924</v>
       </c>
       <c r="M29" t="n">
-        <v>0.053570477048374</v>
+        <v>-0.0044791348812753</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.654437005730527</v>
+        <v>-3.37167880196726</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0067969684891115</v>
+        <v>0.9264591031875949</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.581967213114754</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>42.75</v>
+        <v>10.44</v>
       </c>
       <c r="K30" t="n">
-        <v>2.00109757980894</v>
+        <v>0.0217610348143261</v>
       </c>
       <c r="L30" t="n">
-        <v>0.444223764952923</v>
+        <v>-0.0041682705945382</v>
       </c>
       <c r="M30" t="n">
-        <v>3.22583439933233</v>
+        <v>0.0432051865332123</v>
       </c>
       <c r="N30" t="n">
-        <v>4.68093001124899</v>
+        <v>0.208439030788564</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.402679801586845</v>
+        <v>0.999897055390781</v>
       </c>
       <c r="G31" t="n">
-        <v>0.104651162790698</v>
+        <v>0.155688622754491</v>
       </c>
       <c r="H31" t="n">
-        <v>0.732558139534884</v>
+        <v>0.191616766467066</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.2</v>
+        <v>0.008</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-0.0003240905057675</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0739374541918851</v>
+        <v>-0.0004853424561251</v>
       </c>
       <c r="M31" t="n">
-        <v>0.08529023152716531</v>
+        <v>-0.0001483683817687</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-4.05113132209405</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.008260359500032999</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0059880239520958</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.718562874251497</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.397317184923881</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.817073170731707</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>10.45</v>
+        <v>157</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0044360153330882</v>
+        <v>6.73973214285714</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0298732279171211</v>
+        <v>1.87631040928512</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0217809709946206</v>
+        <v>12.1512865723179</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.0424499074936671</v>
+        <v>4.29282302092812</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,35 +3382,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.999998078039951</v>
+        <v>0.77428723687587</v>
       </c>
       <c r="G33" t="n">
-        <v>0.144578313253012</v>
+        <v>0.740506329113924</v>
       </c>
       <c r="H33" t="n">
-        <v>0.216867469879518</v>
+        <v>0.272151898734177</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0004953661844484</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0007180537352555</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0003015796726797</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-5.50406871609403</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,35 +3473,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0040833694063674</v>
+        <v>0.824240828382494</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0060240963855421</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>0.686746987951807</v>
+        <v>0.123456790123457</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>152</v>
+        <v>0.004</v>
       </c>
       <c r="K34" t="n">
-        <v>6.73973214285714</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>2.30493587337267</v>
+        <v>-0.0001314321698452</v>
       </c>
       <c r="M34" t="n">
-        <v>11.6405514446938</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>4.43403430451128</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.659302510264309</v>
+        <v>0.8629542976129611</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7579617834394899</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.254777070063694</v>
+        <v>0.907407407407407</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.8673999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-0.009496100164203601</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.021214732075534</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0031423517907412</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-1.09477751489551</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,35 +3655,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.334229838148795</v>
+        <v>0.0014040267559419</v>
       </c>
       <c r="G36" t="n">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.133333333333333</v>
+        <v>0.573170731707317</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.005</v>
+        <v>7.41</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>-0.0195962712973118</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.0309757044713012</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0001344808541973</v>
+        <v>-0.0092188288743058</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>-0.264457102527825</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.668678670447821</v>
+        <v>0.937763575609918</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.907894736842105</v>
+        <v>0.946107784431138</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.90855</v>
+        <v>0.908</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0056959064327485</v>
+        <v>-0.0125125187312687</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0203438719834266</v>
+        <v>-0.0260916467567076</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0091862714525003</v>
+        <v>0.0005325851183449999</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.626922726624681</v>
+        <v>-1.37803069727629</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.080852275843626</v>
+        <v>0.9926924745411591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.588957055214724</v>
+        <v>0.682634730538922</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.39</v>
+        <v>1.091</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0098760703019378</v>
+        <v>-0.0144958454418731</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0219543349591454</v>
+        <v>-0.0248429173831299</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0017273774326105</v>
+        <v>-0.0049756268480993</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.133641005438943</v>
+        <v>-1.32867510924593</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,46 +3913,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>15</v>
       </c>
       <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.99639912350549</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0059880239520958</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.365269461077844</v>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.810395055605136</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.939759036144578</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
       <c r="J39" t="n">
-        <v>0.924</v>
+        <v>0.019</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0071093565406893</v>
+        <v>-0.0005062370062370001</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0224032510308597</v>
+        <v>-0.000828231292517</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0038711897158157</v>
+        <v>-0.0001935372344969</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.769410881026991</v>
+        <v>-2.66440529598425</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.971580612551629</v>
+        <v>0.710321173772483</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.692771084337349</v>
+        <v>0.88622754491018</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.0955</v>
+        <v>1.45</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.009964863648569499</v>
+        <v>-0.0117186764128728</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0194091846047132</v>
+        <v>-0.0358330013724458</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.001357031527893</v>
+        <v>0.0231150396440228</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.90961785929434</v>
+        <v>-0.808184580198127</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,11 +4095,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -4110,31 +4110,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.99922281368735</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0060240963855421</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.355421686746988</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.02</v>
+        <v>0.365</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0006458885941644</v>
+        <v>0.0142845173652967</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0009685117666556</v>
+        <v>-0.105505878373789</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.0003022137323204</v>
+        <v>0.0423642508569787</v>
       </c>
       <c r="N41" t="n">
-        <v>-3.22944297082228</v>
+        <v>3.91356640145115</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4172,11 +4172,7 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4186,46 +4182,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.44880054854876</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.903030303030303</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.45</v>
+        <v>97</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0045010269283432</v>
+        <v>0.521495199554582</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0236383089555247</v>
+        <v>-12.7830377068971</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0310682471218883</v>
+        <v>7.49103249369495</v>
       </c>
       <c r="N42" t="n">
-        <v>0.310415650230567</v>
+        <v>0.53762391706658</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4230,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4263,11 +4259,7 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4277,7 +4269,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4304,19 +4296,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.365</v>
+        <v>4.853</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0272087434777123</v>
+        <v>0.497169039542547</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0486294716667919</v>
+        <v>-0.549170768875527</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0662251248548187</v>
+        <v>0.749080376689933</v>
       </c>
       <c r="N43" t="n">
-        <v>7.45445026786638</v>
+        <v>10.2445711836503</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4364,11 +4356,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4379,7 +4371,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.5</v>
+        <v>0.141565435331173</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4391,19 +4383,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>94.62</v>
+        <v>0.3895</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.570844351352893</v>
+        <v>-0.0150848002708192</v>
       </c>
       <c r="L44" t="n">
-        <v>-12.7830377068971</v>
+        <v>-0.0304285510825402</v>
       </c>
       <c r="M44" t="n">
-        <v>3.11512692578445</v>
+        <v>0.0093044907510666</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.603301998893356</v>
+        <v>-3.87286271394589</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4412,7 +4404,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4451,11 +4443,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4466,7 +4458,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.986256831944245</v>
+        <v>0.295752518497458</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4478,19 +4470,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>4.349</v>
+        <v>97.55</v>
       </c>
       <c r="K45" t="n">
-        <v>0.67252872411107</v>
+        <v>-0.722581300813008</v>
       </c>
       <c r="L45" t="n">
-        <v>0.440774574706081</v>
+        <v>-3.03329951289512</v>
       </c>
       <c r="M45" t="n">
-        <v>0.749080376689933</v>
+        <v>0.657887541185399</v>
       </c>
       <c r="N45" t="n">
-        <v>15.4639853785024</v>
+        <v>-0.740729165364437</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4499,7 +4491,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4538,7 +4530,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4553,7 +4545,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.301083763874098</v>
+        <v>0.894751149972331</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4565,19 +4557,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.41</v>
+        <v>4.5845</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.008892302672755001</v>
+        <v>0.155783440128154</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0315170374125703</v>
+        <v>-0.06361091553599441</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0180942057181615</v>
+        <v>0.351283454114655</v>
       </c>
       <c r="N46" t="n">
-        <v>-2.16885431042806</v>
+        <v>3.39804646369623</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4586,7 +4578,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4616,180 +4608,6 @@
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s Pahiatua STP</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>0.07620314197837499</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>97.55</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-1.67699724517906</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-4.24570004252487</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.0497568021056319</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-1.71911557681093</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Very unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>1841340</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5519714</v>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Mangatainoka at d/s Pahiatua STP</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>10</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0.874273906745989</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>4.349</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.211725308752297</v>
-      </c>
-      <c r="L48" t="n">
-        <v>-0.064845597998408</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.633675969457514</v>
-      </c>
-      <c r="N48" t="n">
-        <v>4.86836764203949</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>1841340</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5519714</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Mana_8c</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangatainokaatdsPahiatuaSTP_ba1729429b.xlsx
+++ b/trend_results/Rivers/MangatainokaatdsPahiatuaSTP_ba1729429b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="67">
   <si>
     <t>site name</t>
   </si>
@@ -91,42 +91,42 @@
     <t>Chlorophyll A</t>
   </si>
   <si>
+    <t>Dissolved Oxygen Concentration</t>
+  </si>
+  <si>
+    <t>Dissolved Reactive Phosphorus</t>
+  </si>
+  <si>
+    <t>E. coli</t>
+  </si>
+  <si>
+    <t>Ammoniacal Nitrogen (NH4)</t>
+  </si>
+  <si>
+    <t>Nitrite Nitrogen (NO2)</t>
+  </si>
+  <si>
+    <t>Nitrate Nitrogen (NO3)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>SIN (Soluble Inorganic nitrogen)</t>
+  </si>
+  <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
     <t>Visual Clarity</t>
   </si>
   <si>
-    <t>Dissolved Oxygen Concentration</t>
-  </si>
-  <si>
-    <t>Dissolved Reactive Phosphorus</t>
-  </si>
-  <si>
-    <t>E. coli</t>
-  </si>
-  <si>
-    <t>Ammoniacal Nitrogen (NH4)</t>
-  </si>
-  <si>
-    <t>Nitrite Nitrogen (NO2)</t>
-  </si>
-  <si>
-    <t>Nitrate Nitrogen (NO3)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>SIN (Soluble Inorganic nitrogen)</t>
-  </si>
-  <si>
-    <t>Total Nitrogen</t>
-  </si>
-  <si>
-    <t>Total Phosphorus</t>
-  </si>
-  <si>
-    <t>Turbidity</t>
-  </si>
-  <si>
     <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
   </si>
   <si>
@@ -145,48 +145,48 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>Impact</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
   </si>
   <si>
     <t>Exceptionally unlikely increasing</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
     <t>Tararua District</t>
   </si>
   <si>
@@ -202,19 +202,19 @@
     <t>mg/m2</t>
   </si>
   <si>
+    <t>g/m3</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>E. coli/100 mL</t>
+  </si>
+  <si>
+    <t>NTU/FNU</t>
+  </si>
+  <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>g/m3</t>
-  </si>
-  <si>
-    <t>mg/L</t>
-  </si>
-  <si>
-    <t>E. coli/100 mL</t>
-  </si>
-  <si>
-    <t>NTU/FNU</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,13 +666,13 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.09533776357255271</v>
+        <v>0.312358956138514</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.647058823529412</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>60</v>
       </c>
       <c r="K2">
-        <v>6.4277950310559</v>
+        <v>2.49663952119309</v>
       </c>
       <c r="L2">
-        <v>-1.52261258929423</v>
+        <v>-8.54491821878217</v>
       </c>
       <c r="M2">
-        <v>15.0368042760264</v>
+        <v>12.3616679858059</v>
       </c>
       <c r="N2">
-        <v>10.7129917184265</v>
+        <v>4.16106586865515</v>
       </c>
       <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
         <v>44</v>
-      </c>
-      <c r="P2" t="s">
-        <v>45</v>
       </c>
       <c r="Q2">
         <v>1841340</v>
@@ -731,40 +731,40 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.08444233677292599</v>
+        <v>0.096383983600694</v>
       </c>
       <c r="G3">
-        <v>0.0588235294117647</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.43</v>
+        <v>10.45</v>
       </c>
       <c r="K3">
-        <v>-0.356097365339578</v>
+        <v>-0.0299659154648684</v>
       </c>
       <c r="L3">
-        <v>-0.713914108176122</v>
+        <v>-0.19545444646597</v>
       </c>
       <c r="M3">
-        <v>-0.0143467368960344</v>
+        <v>0.0068275593767104</v>
       </c>
       <c r="N3">
-        <v>-82.8133407766462</v>
+        <v>-0.286755171912616</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
         <v>45</v>
@@ -802,40 +802,40 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.0037897960157909</v>
+        <v>0.0296084280429928</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.932203389830508</v>
+        <v>0.271186440677966</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.49</v>
+        <v>0.007</v>
       </c>
       <c r="K4">
-        <v>-0.145828981358524</v>
+        <v>0.0006067275747508</v>
       </c>
       <c r="L4">
-        <v>-0.230789835164835</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>-0.0464180701508727</v>
+        <v>0.0011858766233766</v>
       </c>
       <c r="N4">
-        <v>-1.39017141428526</v>
+        <v>8.66753678215472</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
         <v>46</v>
@@ -879,37 +879,37 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>0.0578302213288803</v>
+        <v>0.914162348545589</v>
       </c>
       <c r="G5">
-        <v>0.203389830508475</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H5">
-        <v>0.220338983050847</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.007</v>
+        <v>200</v>
       </c>
       <c r="K5">
-        <v>0.0003865079365079</v>
+        <v>-27.5622693096377</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-66.28303221406991</v>
       </c>
       <c r="M5">
-        <v>0.0011665251612055</v>
+        <v>4.3550047787199</v>
       </c>
       <c r="N5">
-        <v>5.52154195011338</v>
+        <v>-13.7811346548189</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <v>1841340</v>
@@ -947,40 +947,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6">
-        <v>0.404391146790366</v>
+        <v>0.379410513693975</v>
       </c>
       <c r="G6">
-        <v>0.0169491525423729</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="H6">
-        <v>0.88135593220339</v>
+        <v>0.315789473684211</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>230</v>
+        <v>0.005</v>
       </c>
       <c r="K6">
-        <v>4.01373626373626</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-29.2368459605632</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>40.2056999373276</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.74510272336359</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <v>1841340</v>
@@ -1001,7 +1001,7 @@
         <v>60</v>
       </c>
       <c r="W6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1018,40 +1018,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>0.0549410135984706</v>
+        <v>0.999998972742684</v>
       </c>
       <c r="G7">
-        <v>0.690909090909091</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="H7">
-        <v>0.327272727272727</v>
+        <v>0.169491525423729</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-0.0006732718894009</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-0.0009401544401544</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-0.0004141156462585</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>-16.831797235023</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q7">
         <v>1841340</v>
@@ -1072,7 +1072,7 @@
         <v>60</v>
       </c>
       <c r="W7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1092,37 +1092,37 @@
         <v>40</v>
       </c>
       <c r="F8">
-        <v>0.991971226962404</v>
+        <v>0.959614484536439</v>
       </c>
       <c r="G8">
-        <v>0.0677966101694915</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.169491525423729</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.004</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="K8">
-        <v>-0.0002731862378459</v>
+        <v>-0.0490890507518797</v>
       </c>
       <c r="L8">
-        <v>-0.0005893266021367</v>
+        <v>-0.10054586573904</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-0.0025778877451787</v>
       </c>
       <c r="N8">
-        <v>-6.82965594614809</v>
+        <v>-6.03801362261743</v>
       </c>
       <c r="O8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8">
         <v>1841340</v>
@@ -1143,7 +1143,7 @@
         <v>60</v>
       </c>
       <c r="W8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1163,37 +1163,37 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.374304629786965</v>
+        <v>0.768117947040427</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.932203389830508</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.84</v>
+        <v>7.37</v>
       </c>
       <c r="K9">
-        <v>0.0113722527472528</v>
+        <v>0.0205196629213484</v>
       </c>
       <c r="L9">
-        <v>-0.0486061477164542</v>
+        <v>-0.0237175324675325</v>
       </c>
       <c r="M9">
-        <v>0.06756109553577901</v>
+        <v>0.06261428571428559</v>
       </c>
       <c r="N9">
-        <v>1.35383961276819</v>
+        <v>0.278421477901606</v>
       </c>
       <c r="O9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q9">
         <v>1841340</v>
@@ -1212,9 +1212,6 @@
       </c>
       <c r="V9" t="s">
         <v>60</v>
-      </c>
-      <c r="W9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1234,37 +1231,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.032471416189822</v>
+        <v>0.965472151286857</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.758620689655172</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.37</v>
+        <v>0.844</v>
       </c>
       <c r="K10">
-        <v>-0.0465880102040815</v>
+        <v>-0.051443661971831</v>
       </c>
       <c r="L10">
-        <v>-0.0869642857142858</v>
+        <v>-0.100130588919885</v>
       </c>
       <c r="M10">
-        <v>-0.0039782966549057</v>
+        <v>-0.0071553657889243</v>
       </c>
       <c r="N10">
-        <v>-0.632130396256194</v>
+        <v>-6.09522061277618</v>
       </c>
       <c r="O10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q10">
         <v>1841340</v>
@@ -1283,6 +1280,9 @@
       </c>
       <c r="V10" t="s">
         <v>60</v>
+      </c>
+      <c r="W10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1302,37 +1302,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.379283745241188</v>
+        <v>0.970686283104245</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.9830508474576271</v>
+        <v>0.745762711864407</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.859</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0.0125345171588188</v>
+        <v>-0.0530156608097785</v>
       </c>
       <c r="L11">
-        <v>-0.0504015206822244</v>
+        <v>-0.09920076076085289</v>
       </c>
       <c r="M11">
-        <v>0.0717616410231751</v>
+        <v>-0.008060647942122599</v>
       </c>
       <c r="N11">
-        <v>1.45919873793001</v>
+        <v>-5.30156608097785</v>
       </c>
       <c r="O11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q11">
         <v>1841340</v>
@@ -1353,7 +1353,7 @@
         <v>60</v>
       </c>
       <c r="W11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1373,37 +1373,37 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.277998627362289</v>
+        <v>0.903840292761957</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.796610169491525</v>
+        <v>0.508474576271186</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.09</v>
+        <v>0.016</v>
       </c>
       <c r="K12">
-        <v>0.0171077283372366</v>
+        <v>-0.0008919413919413</v>
       </c>
       <c r="L12">
-        <v>-0.0345856004078305</v>
+        <v>-0.0023375085519716</v>
       </c>
       <c r="M12">
-        <v>0.07439372107548591</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.56951636121436</v>
+        <v>-5.57463369963369</v>
       </c>
       <c r="O12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q12">
         <v>1841340</v>
@@ -1424,7 +1424,7 @@
         <v>60</v>
       </c>
       <c r="W12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1438,43 +1438,43 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.258403920708057</v>
+        <v>0.8604918433943179</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.559322033898305</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.018</v>
+        <v>0.92</v>
       </c>
       <c r="K13">
-        <v>0.0006805900621118</v>
+        <v>-0.09131730111993271</v>
       </c>
       <c r="L13">
-        <v>-0.0007673270067799</v>
+        <v>-0.291550786907646</v>
       </c>
       <c r="M13">
-        <v>0.0022112122507575</v>
+        <v>0.0124479520252991</v>
       </c>
       <c r="N13">
-        <v>3.78105590062112</v>
+        <v>-9.92579359999268</v>
       </c>
       <c r="O13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q13">
         <v>1841340</v>
@@ -1495,7 +1495,7 @@
         <v>60</v>
       </c>
       <c r="W13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1503,10 +1503,10 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1515,37 +1515,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.623204850635936</v>
+        <v>0.0001673200626475</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.966101694915254</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.29</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>-0.0372704081632652</v>
+        <v>6.07905686546463</v>
       </c>
       <c r="L14">
-        <v>-0.184245405313779</v>
+        <v>3.41532944011392</v>
       </c>
       <c r="M14">
-        <v>0.187514553398683</v>
+        <v>8.875046028841661</v>
       </c>
       <c r="N14">
-        <v>-2.8891789273849</v>
+        <v>12.1581137309293</v>
       </c>
       <c r="O14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q14">
         <v>1841340</v>
@@ -1566,7 +1566,7 @@
         <v>60</v>
       </c>
       <c r="W14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1574,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1586,37 +1586,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.0010814324269579</v>
+        <v>8.2195172201871E-07</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.137254901960784</v>
       </c>
       <c r="H15">
-        <v>0.658227848101266</v>
+        <v>0.9803921568627449</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J15">
-        <v>50</v>
+        <v>2.4</v>
       </c>
       <c r="K15">
-        <v>4.99365234375</v>
+        <v>-0.50988185768604</v>
       </c>
       <c r="L15">
-        <v>2.41742256357131</v>
+        <v>-0.6692786163454451</v>
       </c>
       <c r="M15">
-        <v>7.76181138040686</v>
+        <v>-0.336269822915263</v>
       </c>
       <c r="N15">
-        <v>9.9873046875</v>
+        <v>-21.245077403585</v>
       </c>
       <c r="O15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q15">
         <v>1841340</v>
@@ -1637,7 +1637,7 @@
         <v>60</v>
       </c>
       <c r="W15" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1651,43 +1651,43 @@
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
       <c r="F16">
-        <v>5.41602469494862E-06</v>
+        <v>0.117785734856706</v>
       </c>
       <c r="G16">
-        <v>0.140350877192982</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0.8947368421052631</v>
+        <v>0.8050847457627121</v>
       </c>
       <c r="I16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>2.48</v>
+        <v>10.45</v>
       </c>
       <c r="K16">
-        <v>-0.384473684210526</v>
+        <v>-0.0300205479452054</v>
       </c>
       <c r="L16">
-        <v>-0.550308546209501</v>
+        <v>-0.0612408055233081</v>
       </c>
       <c r="M16">
-        <v>-0.248181206339712</v>
+        <v>0.0089853132637741</v>
       </c>
       <c r="N16">
-        <v>-15.5029711375212</v>
+        <v>-0.287277970767516</v>
       </c>
       <c r="O16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q16">
         <v>1841340</v>
@@ -1722,40 +1722,40 @@
         <v>10</v>
       </c>
       <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17">
+        <v>0.883049787891323</v>
+      </c>
+      <c r="G17">
+        <v>0.169491525423729</v>
+      </c>
+      <c r="H17">
+        <v>0.144067796610169</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17">
-        <v>0.268305388504782</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0.836206896551724</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
-        <v>10.45</v>
+        <v>0.0075</v>
       </c>
       <c r="K17">
-        <v>-0.0260892857142859</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>-0.0553540168602063</v>
+        <v>-0.0003160052481888</v>
       </c>
       <c r="M17">
-        <v>0.0164926689269532</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>-0.249658236500343</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P17" t="s">
         <v>52</v>
@@ -1796,40 +1796,40 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>0.818944706937409</v>
+        <v>0.185233018780945</v>
       </c>
       <c r="G18">
-        <v>0.170940170940171</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H18">
-        <v>0.153846153846154</v>
+        <v>0.745762711864407</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.008</v>
+        <v>169</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>4.75804597701149</v>
       </c>
       <c r="L18">
-        <v>-0.000289638855982</v>
+        <v>-3.22168243006001</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.5240066247747</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2.81541182071686</v>
       </c>
       <c r="O18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" t="s">
         <v>44</v>
-      </c>
-      <c r="P18" t="s">
-        <v>53</v>
       </c>
       <c r="Q18">
         <v>1841340</v>
@@ -1867,40 +1867,40 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19">
-        <v>0.0271216131399011</v>
+        <v>0.0160592836616303</v>
       </c>
       <c r="G19">
-        <v>0.008547008547008499</v>
+        <v>0.792792792792793</v>
       </c>
       <c r="H19">
-        <v>0.709401709401709</v>
+        <v>0.216216216216216</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>162</v>
+        <v>0.005</v>
       </c>
       <c r="K19">
-        <v>10.4274450984831</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.43382593268956</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>23.1175930495524</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>6.4366945052365</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q19">
         <v>1841340</v>
@@ -1921,7 +1921,7 @@
         <v>60</v>
       </c>
       <c r="W19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1938,40 +1938,40 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20">
-        <v>0.0019838025511411</v>
+        <v>0.999999156131015</v>
       </c>
       <c r="G20">
-        <v>0.798165137614679</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="H20">
-        <v>0.211009174311927</v>
+        <v>0.144067796610169</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>-0.0004288649706457</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-0.0005855837147458</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>-0.000261583381867</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>-10.7216242661448</v>
       </c>
       <c r="O20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q20">
         <v>1841340</v>
@@ -1992,7 +1992,7 @@
         <v>60</v>
       </c>
       <c r="W20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2006,43 +2006,43 @@
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
       </c>
       <c r="F21">
-        <v>0.998816215904293</v>
+        <v>0.985656037545816</v>
       </c>
       <c r="G21">
-        <v>0.0683760683760684</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0.145299145299145</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.004</v>
+        <v>0.864</v>
       </c>
       <c r="K21">
-        <v>-0.0002403356400425</v>
+        <v>-0.0233386581469648</v>
       </c>
       <c r="L21">
-        <v>-0.0004076450892857</v>
+        <v>-0.0428154327071647</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-0.0077698956163127</v>
       </c>
       <c r="N21">
-        <v>-6.00839100106315</v>
+        <v>-2.70123358182463</v>
       </c>
       <c r="O21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q21">
         <v>1841340</v>
@@ -2063,7 +2063,7 @@
         <v>60</v>
       </c>
       <c r="W21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2077,43 +2077,43 @@
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.7474254717126519</v>
+        <v>0.366308109175782</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.897435897435897</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8688</v>
+        <v>7.38</v>
       </c>
       <c r="K22">
-        <v>-0.0122153058048067</v>
+        <v>-0.0028419701213818</v>
       </c>
       <c r="L22">
-        <v>-0.0309706998559547</v>
+        <v>-0.0176910921416354</v>
       </c>
       <c r="M22">
-        <v>0.0099855268214184</v>
+        <v>0.0115973735481882</v>
       </c>
       <c r="N22">
-        <v>-1.40599744530463</v>
+        <v>-0.038509080235527</v>
       </c>
       <c r="O22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q22">
         <v>1841340</v>
@@ -2132,9 +2132,6 @@
       </c>
       <c r="V22" t="s">
         <v>60</v>
-      </c>
-      <c r="W22" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2148,43 +2145,43 @@
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.034898494038064</v>
+        <v>0.9865628311893549</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.608695652173913</v>
+        <v>0.923728813559322</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.38</v>
+        <v>0.875</v>
       </c>
       <c r="K23">
-        <v>-0.0154985855728431</v>
+        <v>-0.0267582417582418</v>
       </c>
       <c r="L23">
-        <v>-0.0298841995046676</v>
+        <v>-0.0466478614414817</v>
       </c>
       <c r="M23">
-        <v>-0.0013273726062917</v>
+        <v>-0.0080054323887668</v>
       </c>
       <c r="N23">
-        <v>-0.21000793459137</v>
+        <v>-3.05808477237049</v>
       </c>
       <c r="O23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23">
         <v>1841340</v>
@@ -2203,6 +2200,9 @@
       </c>
       <c r="V23" t="s">
         <v>60</v>
+      </c>
+      <c r="W23" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2222,37 +2222,37 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.7300939717903</v>
+        <v>0.99722647916093</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.948717948717949</v>
+        <v>0.669491525423729</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.905</v>
+        <v>1.05</v>
       </c>
       <c r="K24">
-        <v>-0.0117935988022769</v>
+        <v>-0.027881679389313</v>
       </c>
       <c r="L24">
-        <v>-0.0286530247983903</v>
+        <v>-0.0434316558705984</v>
       </c>
       <c r="M24">
-        <v>0.0126347785124276</v>
+        <v>-0.0100139329060337</v>
       </c>
       <c r="N24">
-        <v>-1.30316008864938</v>
+        <v>-2.65539803707742</v>
       </c>
       <c r="O24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q24">
         <v>1841340</v>
@@ -2273,7 +2273,7 @@
         <v>60</v>
       </c>
       <c r="W24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2287,43 +2287,43 @@
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.851253092162137</v>
+        <v>0.988139809139868</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.735042735042735</v>
+        <v>0.372881355932203</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.09</v>
+        <v>0.018</v>
       </c>
       <c r="K25">
-        <v>-0.008692881719323701</v>
+        <v>-0.0005463724756918</v>
       </c>
       <c r="L25">
-        <v>-0.0272588712428829</v>
+        <v>-0.0009487012987012</v>
       </c>
       <c r="M25">
-        <v>0.009538081494099401</v>
+        <v>-0.0001266545684571</v>
       </c>
       <c r="N25">
-        <v>-0.797512084341626</v>
+        <v>-3.03540264273249</v>
       </c>
       <c r="O25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q25">
         <v>1841340</v>
@@ -2344,7 +2344,7 @@
         <v>60</v>
       </c>
       <c r="W25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2358,43 +2358,43 @@
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F26">
-        <v>0.632079306347757</v>
+        <v>0.800435118751324</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.384615384615385</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.018</v>
+        <v>1.145</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>-0.0200686813186813</v>
       </c>
       <c r="L26">
-        <v>-0.000509703602341</v>
+        <v>-0.0692140202235576</v>
       </c>
       <c r="M26">
-        <v>0.0003972849150365</v>
+        <v>0.0250759589173284</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>-1.75272325927348</v>
       </c>
       <c r="O26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P26" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q26">
         <v>1841340</v>
@@ -2415,7 +2415,7 @@
         <v>60</v>
       </c>
       <c r="W26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2423,49 +2423,49 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.418805231716811</v>
+        <v>0.0011456993874067</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.905982905982906</v>
+        <v>0.580645161290323</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.33</v>
+        <v>46.25</v>
       </c>
       <c r="K27">
-        <v>0.0064315501785367</v>
+        <v>2.19909688013136</v>
       </c>
       <c r="L27">
-        <v>-0.0468374250857945</v>
+        <v>1.24445485027471</v>
       </c>
       <c r="M27">
-        <v>0.07466244097788979</v>
+        <v>3.2256015826346</v>
       </c>
       <c r="N27">
-        <v>0.483575201393741</v>
+        <v>4.75480406514889</v>
       </c>
       <c r="O27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q27">
         <v>1841340</v>
@@ -2486,7 +2486,7 @@
         <v>60</v>
       </c>
       <c r="W27" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2494,49 +2494,49 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.0020009416139237</v>
+        <v>0.011675613644987</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.118421052631579</v>
       </c>
       <c r="H28">
-        <v>0.5859375</v>
+        <v>0.815789473684211</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J28">
-        <v>44.5</v>
+        <v>2.15</v>
       </c>
       <c r="K28">
-        <v>2.09158358662614</v>
+        <v>-0.0929292482491616</v>
       </c>
       <c r="L28">
-        <v>1.02166563761256</v>
+        <v>-0.178486869708468</v>
       </c>
       <c r="M28">
-        <v>3.29780056279557</v>
+        <v>-0.0189336582803528</v>
       </c>
       <c r="N28">
-        <v>4.70018783511492</v>
+        <v>-4.32229061624007</v>
       </c>
       <c r="O28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q28">
         <v>1841340</v>
@@ -2557,7 +2557,7 @@
         <v>60</v>
       </c>
       <c r="W28" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2571,43 +2571,43 @@
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.023611724338818</v>
+        <v>0.864987088496304</v>
       </c>
       <c r="G29">
-        <v>0.111111111111111</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0.790123456790123</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>2.2</v>
+        <v>10.42</v>
       </c>
       <c r="K29">
-        <v>-0.0741769336432798</v>
+        <v>0.0129699478763584</v>
       </c>
       <c r="L29">
-        <v>-0.144963448887924</v>
+        <v>-0.005774898837199</v>
       </c>
       <c r="M29">
-        <v>-0.0044791348812753</v>
+        <v>0.0332022730649777</v>
       </c>
       <c r="N29">
-        <v>-3.37167880196726</v>
+        <v>0.124471668679063</v>
       </c>
       <c r="O29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q29">
         <v>1841340</v>
@@ -2642,43 +2642,43 @@
         <v>15</v>
       </c>
       <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30">
+        <v>0.9988284174940339</v>
+      </c>
+      <c r="G30">
+        <v>0.168604651162791</v>
+      </c>
+      <c r="H30">
+        <v>0.156976744186047</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
-      <c r="E30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30">
-        <v>0.9264591031875949</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0.818181818181818</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30">
-        <v>10.44</v>
+        <v>0.008</v>
       </c>
       <c r="K30">
-        <v>0.0217610348143261</v>
+        <v>-0.0002103974654377</v>
       </c>
       <c r="L30">
-        <v>-0.0041682705945382</v>
+        <v>-0.0003644795520275</v>
       </c>
       <c r="M30">
-        <v>0.0432051865332123</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>0.208439030788564</v>
+        <v>-2.62996831797235</v>
       </c>
       <c r="O30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q30">
         <v>1841340</v>
@@ -2719,37 +2719,37 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>0.999897055390781</v>
+        <v>0.0287781386011722</v>
       </c>
       <c r="G31">
-        <v>0.155688622754491</v>
+        <v>0.005813953488372</v>
       </c>
       <c r="H31">
-        <v>0.191616766467066</v>
+        <v>0.738372093023256</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0.008</v>
+        <v>158.5</v>
       </c>
       <c r="K31">
-        <v>-0.0003240905057675</v>
+        <v>4.68670800283172</v>
       </c>
       <c r="L31">
-        <v>-0.0004853424561251</v>
+        <v>0.551699609381502</v>
       </c>
       <c r="M31">
-        <v>-0.0001483683817687</v>
+        <v>9.24317755136655</v>
       </c>
       <c r="N31">
-        <v>-4.05113132209405</v>
+        <v>2.95691356645534</v>
       </c>
       <c r="O31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q31">
         <v>1841340</v>
@@ -2787,40 +2787,40 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F32">
-        <v>0.008260359500032999</v>
+        <v>0.827095221232904</v>
       </c>
       <c r="G32">
-        <v>0.0059880239520958</v>
+        <v>0.748466257668712</v>
       </c>
       <c r="H32">
-        <v>0.718562874251497</v>
+        <v>0.263803680981595</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>157</v>
+        <v>0.005</v>
       </c>
       <c r="K32">
-        <v>6.73973214285714</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>1.87631040928512</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>12.1512865723179</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>4.29282302092812</v>
+        <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q32">
         <v>1841340</v>
@@ -2841,7 +2841,7 @@
         <v>60</v>
       </c>
       <c r="W32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2858,28 +2858,28 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33">
-        <v>0.77428723687587</v>
+        <v>0.97505673571523</v>
       </c>
       <c r="G33">
-        <v>0.740506329113924</v>
+        <v>0.180232558139535</v>
       </c>
       <c r="H33">
-        <v>0.272151898734177</v>
+        <v>0.11046511627907</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>-0.0001825470868725</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q33">
         <v>1841340</v>
@@ -2912,7 +2912,7 @@
         <v>60</v>
       </c>
       <c r="W33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2926,43 +2926,43 @@
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F34">
-        <v>0.824240828382494</v>
+        <v>0.92791327359076</v>
       </c>
       <c r="G34">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0.123456790123457</v>
+        <v>0.901162790697674</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0.004</v>
+        <v>0.85755</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>-0.0113691288626468</v>
       </c>
       <c r="L34">
-        <v>-0.0001314321698452</v>
+        <v>-0.0215963332533055</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>0.0003994065124374</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>-1.32576862721087</v>
       </c>
       <c r="O34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q34">
         <v>1841340</v>
@@ -2983,7 +2983,7 @@
         <v>60</v>
       </c>
       <c r="W34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2997,43 +2997,43 @@
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.8629542976129611</v>
+        <v>0.0002111357347289</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.907407407407407</v>
+        <v>0.550295857988166</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.8673999999999999</v>
+        <v>7.41</v>
       </c>
       <c r="K35">
-        <v>-0.009496100164203601</v>
+        <v>-0.0211843807615016</v>
       </c>
       <c r="L35">
-        <v>-0.021214732075534</v>
+        <v>-0.0314447922813348</v>
       </c>
       <c r="M35">
-        <v>0.0031423517907412</v>
+        <v>-0.0114678178963891</v>
       </c>
       <c r="N35">
-        <v>-1.09477751489551</v>
+        <v>-0.285889079102586</v>
       </c>
       <c r="O35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q35">
         <v>1841340</v>
@@ -3052,9 +3052,6 @@
       </c>
       <c r="V35" t="s">
         <v>60</v>
-      </c>
-      <c r="W35" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3068,43 +3065,43 @@
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.0014040267559419</v>
+        <v>0.929956415643548</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.573170731707317</v>
+        <v>0.924418604651163</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.41</v>
+        <v>0.871</v>
       </c>
       <c r="K36">
-        <v>-0.0195962712973118</v>
+        <v>-0.0115663457921291</v>
       </c>
       <c r="L36">
-        <v>-0.0309757044713012</v>
+        <v>-0.0227002850558807</v>
       </c>
       <c r="M36">
-        <v>-0.0092188288743058</v>
+        <v>0.0009663685023467</v>
       </c>
       <c r="N36">
-        <v>-0.264457102527825</v>
+        <v>-1.32793866729381</v>
       </c>
       <c r="O36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q36">
         <v>1841340</v>
@@ -3123,6 +3120,9 @@
       </c>
       <c r="V36" t="s">
         <v>60</v>
+      </c>
+      <c r="W36" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3142,37 +3142,37 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.937763575609918</v>
+        <v>0.996485489560711</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.946107784431138</v>
+        <v>0.674418604651163</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.908</v>
+        <v>1.07</v>
       </c>
       <c r="K37">
-        <v>-0.0125125187312687</v>
+        <v>-0.0134303328250697</v>
       </c>
       <c r="L37">
-        <v>-0.0260916467567076</v>
+        <v>-0.0242190774612678</v>
       </c>
       <c r="M37">
-        <v>0.0005325851183449999</v>
+        <v>-0.0050170423409064</v>
       </c>
       <c r="N37">
-        <v>-1.37803069727629</v>
+        <v>-1.25517129206259</v>
       </c>
       <c r="O37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P37" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q37">
         <v>1841340</v>
@@ -3193,7 +3193,7 @@
         <v>60</v>
       </c>
       <c r="W37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3207,43 +3207,43 @@
         <v>15</v>
       </c>
       <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38">
+        <v>0.99777016772478</v>
+      </c>
+      <c r="G38">
+        <v>0.005813953488372</v>
+      </c>
+      <c r="H38">
+        <v>0.325581395348837</v>
+      </c>
+      <c r="I38">
         <v>1</v>
       </c>
-      <c r="E38" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38">
-        <v>0.9926924745411591</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0.682634730538922</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
       <c r="J38">
-        <v>1.091</v>
+        <v>0.018</v>
       </c>
       <c r="K38">
-        <v>-0.0144958454418731</v>
+        <v>-0.0004233801369752</v>
       </c>
       <c r="L38">
-        <v>-0.0248429173831299</v>
+        <v>-0.000668956043956</v>
       </c>
       <c r="M38">
-        <v>-0.0049756268480993</v>
+        <v>-0.0001762789575289</v>
       </c>
       <c r="N38">
-        <v>-1.32867510924593</v>
+        <v>-2.35211187208477</v>
       </c>
       <c r="O38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q38">
         <v>1841340</v>
@@ -3264,7 +3264,7 @@
         <v>60</v>
       </c>
       <c r="W38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3278,43 +3278,43 @@
         <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.99639912350549</v>
+        <v>0.982756380771293</v>
       </c>
       <c r="G39">
-        <v>0.0059880239520958</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0.365269461077844</v>
+        <v>0.8779069767441861</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0.019</v>
+        <v>1.34</v>
       </c>
       <c r="K39">
-        <v>-0.0005062370062370001</v>
+        <v>-0.0293383428029645</v>
       </c>
       <c r="L39">
-        <v>-0.000828231292517</v>
+        <v>-0.06333416053828191</v>
       </c>
       <c r="M39">
-        <v>-0.0001935372344969</v>
+        <v>-0.0113836190466476</v>
       </c>
       <c r="N39">
-        <v>-2.66440529598425</v>
+        <v>-2.18942856738541</v>
       </c>
       <c r="O39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q39">
         <v>1841340</v>
@@ -3335,7 +3335,7 @@
         <v>60</v>
       </c>
       <c r="W39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3343,49 +3343,49 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>1</v>
       </c>
-      <c r="E40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40">
-        <v>0.710321173772483</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0.88622754491018</v>
-      </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1.45</v>
+        <v>0.377</v>
       </c>
       <c r="K40">
-        <v>-0.0117186764128728</v>
+        <v>0.0142845173652967</v>
       </c>
       <c r="L40">
-        <v>-0.0358330013724458</v>
+        <v>-0.0736934146910655</v>
       </c>
       <c r="M40">
-        <v>0.0231150396440228</v>
+        <v>0.07791571912802039</v>
       </c>
       <c r="N40">
-        <v>-0.808184580198127</v>
+        <v>3.78899664861981</v>
       </c>
       <c r="O40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P40" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q40">
         <v>1841340</v>
@@ -3404,9 +3404,6 @@
       </c>
       <c r="V40" t="s">
         <v>60</v>
-      </c>
-      <c r="W40" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3414,7 +3411,7 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -3438,25 +3435,25 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.365</v>
+        <v>88</v>
       </c>
       <c r="K41">
-        <v>0.0142845173652967</v>
+        <v>0.894101645505883</v>
       </c>
       <c r="L41">
-        <v>-0.105505878373789</v>
+        <v>-11.387591922434</v>
       </c>
       <c r="M41">
-        <v>0.0423642508569787</v>
+        <v>7.49103249369495</v>
       </c>
       <c r="N41">
-        <v>3.91356640145115</v>
+        <v>1.01602459716578</v>
       </c>
       <c r="O41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q41">
         <v>1841340</v>
@@ -3482,7 +3479,7 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -3494,7 +3491,7 @@
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0.768783636774762</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3506,25 +3503,25 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>97</v>
+        <v>5.077</v>
       </c>
       <c r="K42">
-        <v>0.521495199554582</v>
+        <v>0.170979446770666</v>
       </c>
       <c r="L42">
-        <v>-12.7830377068971</v>
+        <v>-0.705987256200068</v>
       </c>
       <c r="M42">
-        <v>7.49103249369495</v>
+        <v>0.703594955494203</v>
       </c>
       <c r="N42">
-        <v>0.53762391706658</v>
+        <v>3.36772595569561</v>
       </c>
       <c r="O42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P42" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q42">
         <v>1841340</v>
@@ -3550,10 +3547,10 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -3562,7 +3559,7 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.889664319040077</v>
+        <v>0.295752518497458</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3574,25 +3571,25 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>4.853</v>
+        <v>0.373</v>
       </c>
       <c r="K43">
-        <v>0.497169039542547</v>
+        <v>-0.0101782777523984</v>
       </c>
       <c r="L43">
-        <v>-0.549170768875527</v>
+        <v>-0.0244934889071631</v>
       </c>
       <c r="M43">
-        <v>0.749080376689933</v>
+        <v>0.010788541903178</v>
       </c>
       <c r="N43">
-        <v>10.2445711836503</v>
+        <v>-2.72876079152771</v>
       </c>
       <c r="O43" t="s">
+        <v>43</v>
+      </c>
+      <c r="P43" t="s">
         <v>44</v>
-      </c>
-      <c r="P43" t="s">
-        <v>53</v>
       </c>
       <c r="Q43">
         <v>1841340</v>
@@ -3618,7 +3615,7 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44">
         <v>10</v>
@@ -3630,7 +3627,7 @@
         <v>40</v>
       </c>
       <c r="F44">
-        <v>0.141565435331173</v>
+        <v>0.237137175383665</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3642,25 +3639,25 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.3895</v>
+        <v>95.81</v>
       </c>
       <c r="K44">
-        <v>-0.0150848002708192</v>
+        <v>-1.19455376940133</v>
       </c>
       <c r="L44">
-        <v>-0.0304285510825402</v>
+        <v>-3.76439955694884</v>
       </c>
       <c r="M44">
-        <v>0.0093044907510666</v>
+        <v>0.5932327278929</v>
       </c>
       <c r="N44">
-        <v>-3.87286271394589</v>
+        <v>-1.24679445715618</v>
       </c>
       <c r="O44" t="s">
+        <v>43</v>
+      </c>
+      <c r="P44" t="s">
         <v>44</v>
-      </c>
-      <c r="P44" t="s">
-        <v>50</v>
       </c>
       <c r="Q44">
         <v>1841340</v>
@@ -3686,7 +3683,7 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C45">
         <v>10</v>
@@ -3698,7 +3695,7 @@
         <v>40</v>
       </c>
       <c r="F45">
-        <v>0.295752518497458</v>
+        <v>0.894751149972331</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3710,25 +3707,25 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>97.55</v>
+        <v>4.8365</v>
       </c>
       <c r="K45">
-        <v>-0.722581300813008</v>
+        <v>0.161196147110333</v>
       </c>
       <c r="L45">
-        <v>-3.03329951289512</v>
+        <v>-0.08712332042911761</v>
       </c>
       <c r="M45">
-        <v>0.657887541185399</v>
+        <v>0.318233044863315</v>
       </c>
       <c r="N45">
-        <v>-0.740729165364437</v>
+        <v>3.33290906875494</v>
       </c>
       <c r="O45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q45">
         <v>1841340</v>
@@ -3746,74 +3743,6 @@
         <v>59</v>
       </c>
       <c r="V45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
-      <c r="A46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46">
-        <v>10</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46">
-        <v>0.894751149972331</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>4.5845</v>
-      </c>
-      <c r="K46">
-        <v>0.155783440128154</v>
-      </c>
-      <c r="L46">
-        <v>-0.06361091553599441</v>
-      </c>
-      <c r="M46">
-        <v>0.351283454114655</v>
-      </c>
-      <c r="N46">
-        <v>3.39804646369623</v>
-      </c>
-      <c r="O46" t="s">
-        <v>44</v>
-      </c>
-      <c r="P46" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q46">
-        <v>1841340</v>
-      </c>
-      <c r="R46">
-        <v>5519714</v>
-      </c>
-      <c r="S46" t="s">
-        <v>57</v>
-      </c>
-      <c r="T46" t="s">
-        <v>58</v>
-      </c>
-      <c r="U46" t="s">
-        <v>59</v>
-      </c>
-      <c r="V46" t="s">
         <v>60</v>
       </c>
     </row>
